--- a/results/mp/deberta/corona/confidence/126/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -97,15 +97,15 @@
     <t>positive</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
@@ -130,10 +130,10 @@
     <t>community</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>sure</t>
   </si>
   <si>
     <t>help</t>
@@ -1204,25 +1204,25 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7086956521739131</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L16">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="M16">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1230,25 +1230,25 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6899999999999999</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="L17">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="N17">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="O17">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1256,25 +1256,25 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6829268292682927</v>
+        <v>0.6820083682008368</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="N18">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1490,25 +1490,25 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5779816513761468</v>
+        <v>0.5625</v>
       </c>
       <c r="L27">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>138</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1516,13 +1516,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5625</v>
+        <v>0.5558823529411765</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="10:17">
